--- a/Document/WebJava中級_基本設計書_20180211.xlsx
+++ b/Document/WebJava中級_基本設計書_20180211.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>基本設計書</t>
     <rPh sb="0" eb="2">
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>-H "Content-Type: application/json" \</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTTPS</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -240,17 +236,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>正常時：空文字列
-異常時：エラーメッセージ</t>
-    <rPh sb="9" eb="11">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>T.B.D</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -308,19 +293,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>指定ありの場合のみ桁数チェック</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケタスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>正常時：{"errorValue":"", "resultValue":[{"invoice_no":"20000", "client_no":"client001", ...}]}</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -439,15 +411,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/InvoiceSearchServlet</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://ドメイン/InvoiceSearchServlet?InvoiceNo=20000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/InvoiceEntryServlet</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -471,6 +435,130 @@
     <rPh sb="19" eb="21">
       <t>セツゾク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/invoice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>指定ありの場合のみ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チェック</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>正常時：空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>配列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+異常時：エラーメッセージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を文字列の配列</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>異常時は０で返却</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録ユーザID</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -478,7 +566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +592,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -556,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -588,8 +691,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,7 +1031,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -908,31 +1041,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>26</v>
@@ -986,20 +1119,20 @@
     </row>
     <row r="17" spans="2:8" ht="33" x14ac:dyDescent="0.4">
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>49</v>
+      <c r="E17" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
@@ -1028,7 +1161,7 @@
         <v>400</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
@@ -1036,7 +1169,7 @@
         <v>500</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -1075,11 +1208,11 @@
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="5" t="s">
@@ -1088,14 +1221,14 @@
       <c r="D31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="E31" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="5" t="s">
@@ -1107,11 +1240,11 @@
       <c r="E32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="F32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
@@ -1130,22 +1263,22 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1184,7 +1317,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1194,31 +1327,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
@@ -1271,232 +1404,271 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="4"/>
+      <c r="E17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="33" x14ac:dyDescent="0.4">
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C24" s="2" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="5">
-        <v>201</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C26" s="5">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C27" s="5">
+        <v>400</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C28" s="5">
         <v>500</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
+      <c r="D28" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C30" s="2" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C31" s="5" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="2" t="s">
+    <row r="35" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F35" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
+    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C41" s="8" t="s">
-        <v>73</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C42" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C44" s="1" t="s">
-        <v>74</v>
+      <c r="C43" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C45" s="1" t="s">
-        <v>75</v>
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C47" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F34:H34"/>
+  <mergeCells count="3">
     <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
